--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1802,28 +1802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>240.4156116908242</v>
+        <v>283.5824506682446</v>
       </c>
       <c r="AB2" t="n">
-        <v>328.9472463034584</v>
+        <v>388.0100197790506</v>
       </c>
       <c r="AC2" t="n">
-        <v>297.5529827967139</v>
+        <v>350.9788880668203</v>
       </c>
       <c r="AD2" t="n">
-        <v>240415.6116908242</v>
+        <v>283582.4506682446</v>
       </c>
       <c r="AE2" t="n">
-        <v>328947.2463034583</v>
+        <v>388010.0197790506</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.120479575094573e-06</v>
+        <v>4.498684358710168e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.739583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>297552.9827967139</v>
+        <v>350978.8880668203</v>
       </c>
     </row>
     <row r="3">
@@ -1908,28 +1908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>126.5350804873582</v>
+        <v>152.3499325277878</v>
       </c>
       <c r="AB3" t="n">
-        <v>173.1308794564977</v>
+        <v>208.4518988890902</v>
       </c>
       <c r="AC3" t="n">
-        <v>156.6075113119332</v>
+        <v>188.5575422232525</v>
       </c>
       <c r="AD3" t="n">
-        <v>126535.0804873582</v>
+        <v>152349.9325277878</v>
       </c>
       <c r="AE3" t="n">
-        <v>173130.8794564977</v>
+        <v>208451.8988890902</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.827770865567295e-06</v>
+        <v>6.960025456890232e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.295572916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>156607.5113119332</v>
+        <v>188557.5422232525</v>
       </c>
     </row>
     <row r="4">
@@ -2014,28 +2014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>110.0028817712969</v>
+        <v>144.3656712440871</v>
       </c>
       <c r="AB4" t="n">
-        <v>150.5107958240614</v>
+        <v>197.5274803599885</v>
       </c>
       <c r="AC4" t="n">
-        <v>136.1462567138827</v>
+        <v>178.6757348660471</v>
       </c>
       <c r="AD4" t="n">
-        <v>110002.8817712969</v>
+        <v>144365.6712440871</v>
       </c>
       <c r="AE4" t="n">
-        <v>150510.7958240614</v>
+        <v>197527.4803599885</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.089289125690565e-06</v>
+        <v>7.337047026178341e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.973307291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>136146.2567138827</v>
+        <v>178675.7348660471</v>
       </c>
     </row>
   </sheetData>
@@ -2311,28 +2311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.0915550490801</v>
+        <v>210.6759979230712</v>
       </c>
       <c r="AB2" t="n">
-        <v>242.3044783460551</v>
+        <v>288.2561947272773</v>
       </c>
       <c r="AC2" t="n">
-        <v>219.1792790092491</v>
+        <v>260.745428072701</v>
       </c>
       <c r="AD2" t="n">
-        <v>177091.5550490801</v>
+        <v>210675.9979230711</v>
       </c>
       <c r="AE2" t="n">
-        <v>242304.4783460551</v>
+        <v>288256.1947272773</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.858798098732393e-06</v>
+        <v>5.649135252600435e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.147786458333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>219179.2790092491</v>
+        <v>260745.428072701</v>
       </c>
     </row>
     <row r="3">
@@ -2417,28 +2417,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.1935724862734</v>
+        <v>139.3605918052615</v>
       </c>
       <c r="AB3" t="n">
-        <v>156.2446837405155</v>
+        <v>190.6793098632699</v>
       </c>
       <c r="AC3" t="n">
-        <v>141.3329104151545</v>
+        <v>172.4811441500654</v>
       </c>
       <c r="AD3" t="n">
-        <v>114193.5724862734</v>
+        <v>139360.5918052616</v>
       </c>
       <c r="AE3" t="n">
-        <v>156244.6837405156</v>
+        <v>190679.3098632699</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.166667167988884e-06</v>
+        <v>7.56380636932707e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.083984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>141332.9104151545</v>
+        <v>172481.1441500654</v>
       </c>
     </row>
   </sheetData>
@@ -2714,28 +2714,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.3997936086019</v>
+        <v>137.3836076909892</v>
       </c>
       <c r="AB2" t="n">
-        <v>145.5808916428334</v>
+        <v>187.9743129797403</v>
       </c>
       <c r="AC2" t="n">
-        <v>131.6868556685456</v>
+        <v>170.034308372612</v>
       </c>
       <c r="AD2" t="n">
-        <v>106399.7936086019</v>
+        <v>137383.6076909892</v>
       </c>
       <c r="AE2" t="n">
-        <v>145580.8916428334</v>
+        <v>187974.3129797403</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.025582958176125e-06</v>
+        <v>7.775197158652949e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.982421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>131686.8556685456</v>
+        <v>170034.308372612</v>
       </c>
     </row>
   </sheetData>
@@ -3011,28 +3011,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.4188141560844</v>
+        <v>132.5685515458894</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.3434046287977</v>
+        <v>181.3861407367331</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.1857182923416</v>
+        <v>164.0749020419175</v>
       </c>
       <c r="AD2" t="n">
-        <v>108418.8141560844</v>
+        <v>132568.5515458894</v>
       </c>
       <c r="AE2" t="n">
-        <v>148343.4046287977</v>
+        <v>181386.1407367331</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.157962477551363e-06</v>
+        <v>7.79519758176027e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.507161458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>134185.7182923416</v>
+        <v>164074.9020419176</v>
       </c>
     </row>
     <row r="3">
@@ -3117,28 +3117,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.0361731598763</v>
+        <v>132.0153183490891</v>
       </c>
       <c r="AB3" t="n">
-        <v>147.8198583368567</v>
+        <v>180.6291826699452</v>
       </c>
       <c r="AC3" t="n">
-        <v>133.7121385237015</v>
+        <v>163.3901869906263</v>
       </c>
       <c r="AD3" t="n">
-        <v>108036.1731598763</v>
+        <v>132015.3183490891</v>
       </c>
       <c r="AE3" t="n">
-        <v>147819.8583368567</v>
+        <v>180629.1826699452</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.185491681995177e-06</v>
+        <v>7.836802302392143e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.471354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>133712.1385237015</v>
+        <v>163390.1869906264</v>
       </c>
     </row>
   </sheetData>
@@ -3414,28 +3414,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.477175010846</v>
+        <v>145.7124215594102</v>
       </c>
       <c r="AB2" t="n">
-        <v>158.0009653431817</v>
+        <v>199.3701635558434</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.9215749666195</v>
+        <v>180.3425549639122</v>
       </c>
       <c r="AD2" t="n">
-        <v>115477.175010846</v>
+        <v>145712.4215594102</v>
       </c>
       <c r="AE2" t="n">
-        <v>158000.9653431817</v>
+        <v>199370.1635558433</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.72642070853813e-06</v>
+        <v>7.470051167150752e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.708333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>142921.5749666195</v>
+        <v>180342.5549639122</v>
       </c>
     </row>
   </sheetData>
@@ -3711,28 +3711,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.9658581357854</v>
+        <v>222.9479296001178</v>
       </c>
       <c r="AB2" t="n">
-        <v>258.5514236865574</v>
+        <v>305.0471930472197</v>
       </c>
       <c r="AC2" t="n">
-        <v>233.87563868919</v>
+        <v>275.9339170793076</v>
       </c>
       <c r="AD2" t="n">
-        <v>188965.8581357854</v>
+        <v>222947.9296001178</v>
       </c>
       <c r="AE2" t="n">
-        <v>258551.4236865574</v>
+        <v>305047.1930472197</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.660360897865608e-06</v>
+        <v>5.336389965455009e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.512369791666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>233875.63868919</v>
+        <v>275933.9170793076</v>
       </c>
     </row>
     <row r="3">
@@ -3817,28 +3817,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>115.3490922740239</v>
+        <v>140.6863888853239</v>
       </c>
       <c r="AB3" t="n">
-        <v>157.8257168920502</v>
+        <v>192.4933239182494</v>
       </c>
       <c r="AC3" t="n">
-        <v>142.7630519817011</v>
+        <v>174.122031249623</v>
       </c>
       <c r="AD3" t="n">
-        <v>115349.0922740239</v>
+        <v>140686.3888853239</v>
       </c>
       <c r="AE3" t="n">
-        <v>157825.7168920502</v>
+        <v>192493.3239182495</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.143610616056175e-06</v>
+        <v>7.498799392632406e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.057942708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>142763.0519817011</v>
+        <v>174122.031249623</v>
       </c>
     </row>
     <row r="4">
@@ -3923,28 +3923,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>115.1117440452217</v>
+        <v>140.4490406565217</v>
       </c>
       <c r="AB4" t="n">
-        <v>157.5009665743383</v>
+        <v>192.1685736005375</v>
       </c>
       <c r="AC4" t="n">
-        <v>142.4692953785216</v>
+        <v>173.8282746464436</v>
       </c>
       <c r="AD4" t="n">
-        <v>115111.7440452217</v>
+        <v>140449.0406565217</v>
       </c>
       <c r="AE4" t="n">
-        <v>157500.9665743383</v>
+        <v>192168.5736005376</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.163041417088227e-06</v>
+        <v>7.527127291039544e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.03515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>142469.2953785216</v>
+        <v>173828.2746464435</v>
       </c>
     </row>
   </sheetData>
@@ -4220,28 +4220,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.8757976851649</v>
+        <v>154.5319942633191</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.860575524147</v>
+        <v>211.4374920214124</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.5538820004938</v>
+        <v>191.258194537333</v>
       </c>
       <c r="AD2" t="n">
-        <v>124875.7976851649</v>
+        <v>154531.9942633191</v>
       </c>
       <c r="AE2" t="n">
-        <v>170860.575524147</v>
+        <v>211437.4920214124</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.475065086821531e-06</v>
+        <v>7.17010545148576e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>154553.8820004938</v>
+        <v>191258.194537333</v>
       </c>
     </row>
   </sheetData>
@@ -4517,28 +4517,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.1500367432425</v>
+        <v>161.8497647177119</v>
       </c>
       <c r="AB2" t="n">
-        <v>187.6547309046103</v>
+        <v>221.4499883943552</v>
       </c>
       <c r="AC2" t="n">
-        <v>169.7452267621961</v>
+        <v>200.3151123090723</v>
       </c>
       <c r="AD2" t="n">
-        <v>137150.0367432424</v>
+        <v>161849.7647177119</v>
       </c>
       <c r="AE2" t="n">
-        <v>187654.7309046103</v>
+        <v>221449.9883943552</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.548059112041652e-06</v>
+        <v>6.753154632657756e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.122395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>169745.2267621961</v>
+        <v>200315.1123090723</v>
       </c>
     </row>
     <row r="3">
@@ -4623,28 +4623,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.6056488379412</v>
+        <v>135.220035957839</v>
       </c>
       <c r="AB3" t="n">
-        <v>151.3355283168499</v>
+        <v>185.0140186843972</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.892277895079</v>
+        <v>167.3565404100165</v>
       </c>
       <c r="AD3" t="n">
-        <v>110605.6488379412</v>
+        <v>135220.035957839</v>
       </c>
       <c r="AE3" t="n">
-        <v>151335.5283168499</v>
+        <v>185014.0186843972</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.215097167049316e-06</v>
+        <v>7.743601550862361e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.2109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>136892.2778950791</v>
+        <v>167356.5404100165</v>
       </c>
     </row>
   </sheetData>
@@ -4920,28 +4920,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.3393792149609</v>
+        <v>191.7734037015473</v>
       </c>
       <c r="AB2" t="n">
-        <v>216.6469240822154</v>
+        <v>262.3928313897996</v>
       </c>
       <c r="AC2" t="n">
-        <v>195.9704457137385</v>
+        <v>237.3504278326856</v>
       </c>
       <c r="AD2" t="n">
-        <v>158339.3792149609</v>
+        <v>191773.4037015473</v>
       </c>
       <c r="AE2" t="n">
-        <v>216646.9240822154</v>
+        <v>262392.8313897996</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.054185852388036e-06</v>
+        <v>5.961447095688102e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.828776041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>195970.4457137385</v>
+        <v>237350.4278326856</v>
       </c>
     </row>
     <row r="3">
@@ -5026,28 +5026,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.9571882535139</v>
+        <v>137.9474552724331</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.5530082878321</v>
+        <v>188.745794115871</v>
       </c>
       <c r="AC3" t="n">
-        <v>139.8026860933932</v>
+        <v>170.7321604318913</v>
       </c>
       <c r="AD3" t="n">
-        <v>112957.1882535139</v>
+        <v>137947.4552724331</v>
       </c>
       <c r="AE3" t="n">
-        <v>154553.0082878321</v>
+        <v>188745.794115871</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.184833739456137e-06</v>
+        <v>7.623999777785245e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.123046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>139802.6860933932</v>
+        <v>170732.1604318913</v>
       </c>
     </row>
   </sheetData>
@@ -5323,28 +5323,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>224.7798435953934</v>
+        <v>267.51922743645</v>
       </c>
       <c r="AB2" t="n">
-        <v>307.5536985938962</v>
+        <v>366.0316090939149</v>
       </c>
       <c r="AC2" t="n">
-        <v>278.2012052545127</v>
+        <v>331.0980660505808</v>
       </c>
       <c r="AD2" t="n">
-        <v>224779.8435953934</v>
+        <v>267519.22743645</v>
       </c>
       <c r="AE2" t="n">
-        <v>307553.6985938962</v>
+        <v>366031.6090939149</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.291581365756107e-06</v>
+        <v>4.762169423428225e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.306640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>278201.2052545127</v>
+        <v>331098.0660505808</v>
       </c>
     </row>
     <row r="3">
@@ -5429,28 +5429,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>121.7179606528422</v>
+        <v>147.3786949318088</v>
       </c>
       <c r="AB3" t="n">
-        <v>166.5398835825876</v>
+        <v>201.6500322947509</v>
       </c>
       <c r="AC3" t="n">
-        <v>150.6455508337062</v>
+        <v>182.404836230195</v>
       </c>
       <c r="AD3" t="n">
-        <v>121717.9606528422</v>
+        <v>147378.6949318088</v>
       </c>
       <c r="AE3" t="n">
-        <v>166539.8835825876</v>
+        <v>201650.0322947509</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.964711702293978e-06</v>
+        <v>7.182808394399117e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>150645.5508337062</v>
+        <v>182404.836230195</v>
       </c>
     </row>
     <row r="4">
@@ -5535,28 +5535,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>108.8432232876031</v>
+        <v>143.0005224117761</v>
       </c>
       <c r="AB4" t="n">
-        <v>148.9240999261507</v>
+        <v>195.6596235015055</v>
       </c>
       <c r="AC4" t="n">
-        <v>134.7109928455264</v>
+        <v>176.9861436445835</v>
       </c>
       <c r="AD4" t="n">
-        <v>108843.2232876031</v>
+        <v>143000.5224117761</v>
       </c>
       <c r="AE4" t="n">
-        <v>148924.0999261508</v>
+        <v>195659.6235015055</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.119244271345345e-06</v>
+        <v>7.406381866687013e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.983072916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>134710.9928455264</v>
+        <v>176986.1436445835</v>
       </c>
     </row>
   </sheetData>
@@ -5832,28 +5832,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.9108454215156</v>
+        <v>145.2087414997393</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.4895999805906</v>
+        <v>198.6810062774059</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.7453293860007</v>
+        <v>179.7191698888903</v>
       </c>
       <c r="AD2" t="n">
-        <v>112910.8454215156</v>
+        <v>145208.7414997393</v>
       </c>
       <c r="AE2" t="n">
-        <v>154489.5999805906</v>
+        <v>198681.0062774059</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.020101539864374e-06</v>
+        <v>7.538609243306798e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.6015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>139745.3293860007</v>
+        <v>179719.1698888903</v>
       </c>
     </row>
     <row r="3">
@@ -5938,28 +5938,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.1045402124501</v>
+        <v>133.306716566026</v>
       </c>
       <c r="AB3" t="n">
-        <v>149.2816452712153</v>
+        <v>182.3961306828257</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.0344145646762</v>
+        <v>164.9884999650852</v>
       </c>
       <c r="AD3" t="n">
-        <v>109104.5402124501</v>
+        <v>133306.7165660259</v>
       </c>
       <c r="AE3" t="n">
-        <v>149281.6452712153</v>
+        <v>182396.1306828258</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.195325544044526e-06</v>
+        <v>7.801740434393703e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.380208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>135034.4145646762</v>
+        <v>164988.4999650852</v>
       </c>
     </row>
   </sheetData>
@@ -6235,28 +6235,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.6386202518799</v>
+        <v>137.9860473656296</v>
       </c>
       <c r="AB2" t="n">
-        <v>145.9076647924541</v>
+        <v>188.7985975203455</v>
       </c>
       <c r="AC2" t="n">
-        <v>131.9824420473956</v>
+        <v>170.7799243535528</v>
       </c>
       <c r="AD2" t="n">
-        <v>106638.6202518799</v>
+        <v>137986.0473656296</v>
       </c>
       <c r="AE2" t="n">
-        <v>145907.6647924541</v>
+        <v>188798.5975203454</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.103815427560702e-06</v>
+        <v>7.827960318913628e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.764322916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>131982.4420473955</v>
+        <v>170779.9243535527</v>
       </c>
     </row>
   </sheetData>
@@ -10313,28 +10313,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.560047936061</v>
+        <v>145.062496095834</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.7461116186705</v>
+        <v>198.480906863891</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.7864827203769</v>
+        <v>179.5381676825599</v>
       </c>
       <c r="AD2" t="n">
-        <v>114560.047936061</v>
+        <v>145062.496095834</v>
       </c>
       <c r="AE2" t="n">
-        <v>156746.1116186705</v>
+        <v>198480.906863891</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.898632912864404e-06</v>
+        <v>7.654017299025727e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.291666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>141786.4827203769</v>
+        <v>179538.1676825599</v>
       </c>
     </row>
   </sheetData>
@@ -10610,28 +10610,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.3629995734712</v>
+        <v>173.6511881687019</v>
       </c>
       <c r="AB2" t="n">
-        <v>187.9461160441861</v>
+        <v>237.5972166020494</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.0088025130124</v>
+        <v>214.9212717194064</v>
       </c>
       <c r="AD2" t="n">
-        <v>137362.9995734712</v>
+        <v>173651.1881687019</v>
       </c>
       <c r="AE2" t="n">
-        <v>187946.1160441861</v>
+        <v>237597.2166020494</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.042974565074707e-06</v>
+        <v>6.588739155414914e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.482421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>170008.8025130124</v>
+        <v>214921.2717194064</v>
       </c>
     </row>
   </sheetData>
@@ -10907,28 +10907,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.0102275224478</v>
+        <v>180.02841787874</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.1458789296287</v>
+        <v>246.3228236348376</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.9487985546562</v>
+        <v>222.8141190634545</v>
       </c>
       <c r="AD2" t="n">
-        <v>147010.2275224479</v>
+        <v>180028.41787874</v>
       </c>
       <c r="AE2" t="n">
-        <v>201145.8789296287</v>
+        <v>246322.8236348376</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.302345502197356e-06</v>
+        <v>6.356202660428454e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.451171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>181948.7985546562</v>
+        <v>222814.1190634545</v>
       </c>
     </row>
     <row r="3">
@@ -11013,28 +11013,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>111.8994239667768</v>
+        <v>136.7057595384195</v>
       </c>
       <c r="AB3" t="n">
-        <v>153.1057285254523</v>
+        <v>187.0468512328449</v>
       </c>
       <c r="AC3" t="n">
-        <v>138.4935326802646</v>
+        <v>169.1953622731393</v>
       </c>
       <c r="AD3" t="n">
-        <v>111899.4239667768</v>
+        <v>136705.7595384195</v>
       </c>
       <c r="AE3" t="n">
-        <v>153105.7285254523</v>
+        <v>187046.8512328449</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.20232342672256e-06</v>
+        <v>7.685812770837382e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.162109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>138493.5326802646</v>
+        <v>169195.3622731393</v>
       </c>
     </row>
   </sheetData>
@@ -11310,28 +11310,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>201.6622313614755</v>
+        <v>244.2218047104366</v>
       </c>
       <c r="AB2" t="n">
-        <v>275.923161658393</v>
+        <v>334.1550475102745</v>
       </c>
       <c r="AC2" t="n">
-        <v>249.5894423703865</v>
+        <v>302.263758765548</v>
       </c>
       <c r="AD2" t="n">
-        <v>201662.2313614755</v>
+        <v>244221.8047104366</v>
       </c>
       <c r="AE2" t="n">
-        <v>275923.161658393</v>
+        <v>334155.0475102745</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.476960665562645e-06</v>
+        <v>5.049134547090215e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.883463541666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>249589.4423703865</v>
+        <v>302263.758765548</v>
       </c>
     </row>
     <row r="3">
@@ -11416,28 +11416,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.592786908894</v>
+        <v>143.094484084993</v>
       </c>
       <c r="AB3" t="n">
-        <v>160.8956388762991</v>
+        <v>195.7881860080973</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.5399849204369</v>
+        <v>177.1024363259848</v>
       </c>
       <c r="AD3" t="n">
-        <v>117592.786908894</v>
+        <v>143094.484084993</v>
       </c>
       <c r="AE3" t="n">
-        <v>160895.6388762991</v>
+        <v>195788.1860080973</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.085909030317412e-06</v>
+        <v>7.385599510133735e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.07421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>145539.9849204369</v>
+        <v>177102.4363259848</v>
       </c>
     </row>
     <row r="4">
@@ -11522,28 +11522,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>116.4364219125104</v>
+        <v>141.9381190886093</v>
       </c>
       <c r="AB4" t="n">
-        <v>159.3134492730247</v>
+        <v>194.2059964048229</v>
       </c>
       <c r="AC4" t="n">
-        <v>144.1087972722814</v>
+        <v>175.6712486778293</v>
       </c>
       <c r="AD4" t="n">
-        <v>116436.4219125104</v>
+        <v>141938.1190886094</v>
       </c>
       <c r="AE4" t="n">
-        <v>159313.4492730247</v>
+        <v>194205.9964048229</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.138196293601392e-06</v>
+        <v>7.461529453786757e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.012369791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>144108.7972722814</v>
+        <v>175671.2486778293</v>
       </c>
     </row>
   </sheetData>
@@ -11819,28 +11819,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.5157428100246</v>
+        <v>213.1547088927084</v>
       </c>
       <c r="AB2" t="n">
-        <v>223.7294531180225</v>
+        <v>291.6476764289435</v>
       </c>
       <c r="AC2" t="n">
-        <v>202.3770281187624</v>
+        <v>263.8132315207358</v>
       </c>
       <c r="AD2" t="n">
-        <v>163515.7428100246</v>
+        <v>213154.7088927084</v>
       </c>
       <c r="AE2" t="n">
-        <v>223729.4531180225</v>
+        <v>291647.6764289435</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.323942422528258e-06</v>
+        <v>5.540813981050078e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.94010416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>202377.0281187624</v>
+        <v>263813.2315207358</v>
       </c>
     </row>
   </sheetData>
@@ -12116,28 +12116,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.3575084029602</v>
+        <v>139.0423314516516</v>
       </c>
       <c r="AB2" t="n">
-        <v>146.8912792758686</v>
+        <v>190.2438520068051</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.8721817450249</v>
+        <v>172.0872457802525</v>
       </c>
       <c r="AD2" t="n">
-        <v>107357.5084029602</v>
+        <v>139042.3314516516</v>
       </c>
       <c r="AE2" t="n">
-        <v>146891.2792758686</v>
+        <v>190243.8520068051</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.142400407224139e-06</v>
+        <v>7.826253231299515e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.614583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>132872.1817450249</v>
+        <v>172087.2457802525</v>
       </c>
     </row>
     <row r="3">
@@ -12222,28 +12222,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.4346079635883</v>
+        <v>131.3475717456072</v>
       </c>
       <c r="AB3" t="n">
-        <v>146.9967702961125</v>
+        <v>179.7155423081607</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.9676048503543</v>
+        <v>162.5637431826679</v>
       </c>
       <c r="AD3" t="n">
-        <v>107434.6079635883</v>
+        <v>131347.5717456072</v>
       </c>
       <c r="AE3" t="n">
-        <v>146996.7702961125</v>
+        <v>179715.5423081607</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.155882434143331e-06</v>
+        <v>7.846771617342067e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.598307291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>132967.6048503543</v>
+        <v>162563.7431826679</v>
       </c>
     </row>
   </sheetData>
@@ -12519,28 +12519,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.7807632654319</v>
+        <v>152.3603070229846</v>
       </c>
       <c r="AB2" t="n">
-        <v>163.8893246540172</v>
+        <v>208.4660937311088</v>
       </c>
       <c r="AC2" t="n">
-        <v>148.2479575291948</v>
+        <v>188.5703823294714</v>
       </c>
       <c r="AD2" t="n">
-        <v>119780.7632654319</v>
+        <v>152360.3070229845</v>
       </c>
       <c r="AE2" t="n">
-        <v>163889.3246540172</v>
+        <v>208466.0937311088</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.810660964101678e-06</v>
+        <v>7.181887198618464e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.809895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>148247.9575291948</v>
+        <v>188570.3823294714</v>
       </c>
     </row>
     <row r="3">
@@ -12625,28 +12625,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.9254359297739</v>
+        <v>134.3388480428466</v>
       </c>
       <c r="AB3" t="n">
-        <v>150.4048310070203</v>
+        <v>183.8083385038381</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.0504050302574</v>
+        <v>166.2659286537067</v>
       </c>
       <c r="AD3" t="n">
-        <v>109925.4359297739</v>
+        <v>134338.8480428466</v>
       </c>
       <c r="AE3" t="n">
-        <v>150404.8310070203</v>
+        <v>183808.3385038381</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.204094927782942e-06</v>
+        <v>7.769248970389432e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.295572916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>136050.4050302574</v>
+        <v>166265.9286537067</v>
       </c>
     </row>
   </sheetData>
